--- a/data/income_statement/3digits/total/237_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/237_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>237-Cutting, shaping and finishing of stone</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>237-Cutting, shaping and finishing of stone</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2131160.93878</v>
@@ -959,34 +865,39 @@
         <v>3177470.12172</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3540229.60053</v>
+        <v>3542073.60711</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4380453.03617</v>
+        <v>4469346.07259</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5037414.077969999</v>
+        <v>5073921.09294</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5451672.92912</v>
+        <v>5625626.671440001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5895294.07918</v>
+        <v>5910903.31197</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>7022802.291680001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>9134672.314469999</v>
+        <v>9150807.250419999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>9214976.353310002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9292260.71778</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12031459.515</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1378264.81552</v>
@@ -998,34 +909,39 @@
         <v>2168312.64805</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2482430.20733</v>
+        <v>2484274.21391</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3010224.54303</v>
+        <v>3077178.6841</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3523711.95081</v>
+        <v>3548558.73936</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3755510.4684</v>
+        <v>3871366.33178</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4342773.726</v>
+        <v>4357887.30621</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>5214723.93983</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6786703.540959999</v>
+        <v>6802008.776870001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6577490.55611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6642033.10956</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8735299.791999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>725290.33395</v>
@@ -1034,37 +950,42 @@
         <v>776260.63864</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>961874.4103699999</v>
+        <v>961874.4103700002</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>1008470.70035</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1310863.20347</v>
+        <v>1331472.252</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1423354.95452</v>
+        <v>1434860.85903</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1534935.0477</v>
+        <v>1591726.97004</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1427959.54888</v>
+        <v>1428306.27592</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1674069.37185</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2190599.85747</v>
+        <v>2191307.74655</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2479658.28416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2491624.77071</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3119227.483</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>27605.78931</v>
@@ -1079,31 +1000,36 @@
         <v>49328.69285</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>59365.28967</v>
+        <v>60695.13649</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>90347.17263999999</v>
+        <v>90501.49455</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>161227.41302</v>
+        <v>162533.36962</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>124560.8043</v>
+        <v>124709.72984</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>134008.98</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>157368.91604</v>
+        <v>157490.727</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>157827.51304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>158602.83751</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>176932.24</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>14455.13553</v>
@@ -1118,31 +1044,36 @@
         <v>23466.95677</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>18747.5028</v>
+        <v>19227.58176</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>22316.75071</v>
+        <v>22462.51834</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>26524.09639</v>
+        <v>27742.67499</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>30858.69144</v>
+        <v>30916.51368</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>41198.91292</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>481390.15892</v>
+        <v>481488.81689</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>58072.10875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>59228.36642999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>133485.244</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>5963.09828</v>
@@ -1157,31 +1088,36 @@
         <v>13586.90607</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12715.76017</v>
+        <v>12948.78568</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>15453.22455</v>
+        <v>15494.29593</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>18371.35725</v>
+        <v>19259.61347</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>22016.16589</v>
+        <v>22073.98813</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>30496.68511</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>464277.85831</v>
+        <v>464376.51628</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>44859.92157999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>46005.07653</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>98634.22100000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3284.29692</v>
@@ -1196,31 +1132,36 @@
         <v>6709.510730000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3352.7793</v>
+        <v>3409.224760000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3270.27826</v>
+        <v>3271.399809999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4552.014740000001</v>
+        <v>4775.95231</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>4856.282349999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6414.149179999999</v>
+        <v>6414.14918</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>6651.6492</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6138.33893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6142.96159</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>22604.194</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>5207.74033</v>
@@ -1235,13 +1176,13 @@
         <v>3170.53997</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2678.96333</v>
+        <v>2869.57132</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3593.2479</v>
+        <v>3696.8226</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3600.7244</v>
+        <v>3707.10921</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>3986.2432</v>
@@ -1253,13 +1194,18 @@
         <v>10460.65141</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>7073.84824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7080.32831</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>12246.829</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2116705.80325</v>
@@ -1271,34 +1217,39 @@
         <v>3159248.20213</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3516762.64376</v>
+        <v>3518606.65034</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4361705.53337</v>
+        <v>4450118.49083</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5015097.327260001</v>
+        <v>5051458.5746</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5425148.83273</v>
+        <v>5597883.99645</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5864435.38774</v>
+        <v>5879986.79829</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>6981603.378760001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8653282.155549999</v>
+        <v>8669318.433530001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9156904.24456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9233032.35135</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11897974.271</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1631118.86801</v>
@@ -1310,34 +1261,39 @@
         <v>2509145.80514</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2771607.339600001</v>
+        <v>2773225.83688</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3474034.53796</v>
+        <v>3533142.25754</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3945540.16042</v>
+        <v>3972215.4377</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4204510.76937</v>
+        <v>4327803.75042</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4585030.41928</v>
+        <v>4597148.12738</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5317443.106020001</v>
+        <v>5317443.10602</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6723828.41483</v>
+        <v>6738718.354960001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6922170.360950001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6981976.400200001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>8756751.559</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1163709.79867</v>
@@ -1349,34 +1305,39 @@
         <v>1817443.24156</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2022443.55006</v>
+        <v>2024062.04734</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2443617.32841</v>
+        <v>2489393.36365</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2946735.17053</v>
+        <v>2969406.84245</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3081405.22745</v>
+        <v>3180953.964499999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3460206.13919</v>
+        <v>3471260.77801</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>4072676.74761</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5209107.99017</v>
+        <v>5219213.568109999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5453623.504129999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5486441.283480001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6792582.265</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>343133.84558</v>
@@ -1391,31 +1352,36 @@
         <v>559952.0038200001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>699985.71241</v>
+        <v>704844.12067</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>708755.5325399999</v>
+        <v>711657.02722</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>694484.3123999999</v>
+        <v>707402.9732599999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>743761.8306399999</v>
+        <v>744048.5649700001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>934994.84511</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1116405.52298</v>
+        <v>1118311.22371</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1103416.19879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1124544.79932</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1507044.318</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>110253.65158</v>
@@ -1430,13 +1396,13 @@
         <v>172771.74302</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>318191.71579</v>
+        <v>326664.99187</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>272244.43359</v>
+        <v>273346.54427</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>402752.83458</v>
+        <v>412976.8693200001</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>345959.41129</v>
@@ -1445,22 +1411,27 @@
         <v>281681.37587</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>366057.10814</v>
+        <v>368751.1796</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>327588.94041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>331301.45232</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>422897.987</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>14021.57218</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>7000.27571</v>
+        <v>7000.275709999999</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>9221.705830000001</v>
@@ -1475,25 +1446,30 @@
         <v>17805.02376</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>25868.39494</v>
+        <v>26469.94334000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>35103.03816</v>
+        <v>35879.37311</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>28090.13743</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>32257.79354</v>
+        <v>32442.38354</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>37541.71762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>39688.86508</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>34226.989</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>485586.93524</v>
@@ -1505,34 +1481,39 @@
         <v>650102.39699</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>745155.3041600001</v>
+        <v>745380.8134600001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>887670.99541</v>
+        <v>916976.23329</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1069557.16684</v>
+        <v>1079243.1369</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1220638.06336</v>
+        <v>1270080.24603</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1279404.96846</v>
+        <v>1282838.67091</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1664160.27274</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1929453.74072</v>
+        <v>1930600.07857</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2234733.88361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2251055.95115</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3141222.712</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>298081.43913</v>
@@ -1544,34 +1525,39 @@
         <v>422612.06589</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>483655.12729</v>
+        <v>483846.19759</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>534972.25018</v>
+        <v>553997.03072</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>634363.4269200001</v>
+        <v>641986.6729700001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>633197.57635</v>
+        <v>658670.8351600001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>720209.48838</v>
+        <v>720751.39462</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>861763.17427</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1056012.62671</v>
+        <v>1060326.95069</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1103611.79321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1114723.14799</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1276610.235</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2402.01868</v>
@@ -1586,13 +1572,13 @@
         <v>2547.12785</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2067.20472</v>
+        <v>2073.95472</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>3281.03676</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8177.715679999999</v>
+        <v>8193.603090000001</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>4452.25997</v>
@@ -1604,13 +1590,18 @@
         <v>3121.50593</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3803.13749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3812.71249</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5077.477</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>103818.19368</v>
@@ -1625,31 +1616,36 @@
         <v>178120.18462</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>192008.19565</v>
+        <v>196879.42087</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>213830.15736</v>
+        <v>216607.44652</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>215332.01837</v>
+        <v>225297.76265</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>241727.6259</v>
+        <v>241785.34833</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>303507.39577</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>357408.30212</v>
+        <v>357938.18105</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>385938.87103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>389343.40021</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>426128.336</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>191861.22677</v>
@@ -1661,34 +1657,39 @@
         <v>261191.2679</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>302987.81482</v>
+        <v>303178.88512</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>340896.84981</v>
+        <v>355043.65513</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>417252.2328</v>
+        <v>422098.18969</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>409687.8423</v>
+        <v>425179.46942</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>474029.60251</v>
+        <v>474513.78632</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>555300.3679600001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>695482.8186600001</v>
+        <v>699267.2637100001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>713869.78469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>721567.03529</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>845404.422</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>187505.49611</v>
@@ -1700,34 +1701,39 @@
         <v>227490.3311</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>261500.17687</v>
+        <v>261534.61587</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>352698.74523</v>
+        <v>362979.2025700001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>435193.73992</v>
+        <v>437256.46393</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>587440.48701</v>
+        <v>611409.41087</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>559195.48008</v>
+        <v>562087.27629</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>802397.0984700001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>873441.11401</v>
+        <v>870273.12788</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1131122.0904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1136332.80316</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1864612.477</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>65730.32986</v>
@@ -1739,40 +1745,45 @@
         <v>139775.58278</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>114059.44295</v>
+        <v>114059.75734</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>156123.37917</v>
+        <v>159462.05603</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>129385.42631</v>
+        <v>130620.33929</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>267096.47675</v>
+        <v>274525.41584</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>252073.2035</v>
+        <v>252078.55419</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>285993.27058</v>
+        <v>285993.2705800001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>956444.9127000001</v>
+        <v>956766.8471099999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>372522.89537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>375957.54102</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>873789.238</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3003.16006</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>33095.40580000001</v>
+        <v>33095.4058</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>43155.60999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>693.54544</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2089.888</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1835,19 +1851,24 @@
         <v>643.17498</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>5351.33528</v>
+        <v>5351.335279999999</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>1288.60673</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>4979.86</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4950.770060000001</v>
+        <v>4950.77006</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>5781.63857</v>
@@ -1859,37 +1880,42 @@
         <v>9706.171339999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7483.0833</v>
+        <v>7722.60446</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>9416.867120000001</v>
+        <v>9524.61843</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13353.0684</v>
+        <v>13563.8404</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>15212.24518</v>
+        <v>15213.97245</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>21271.76528</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>32137.30801</v>
+        <v>32148.93272</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>38045.90875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>39130.5248</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>41738.032</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>90.54919</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>309.14832</v>
+        <v>309.1483200000001</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>170.27943</v>
@@ -1916,34 +1942,39 @@
         <v>189.8461</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>530.6032100000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>530.60321</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>86.815</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>588.78812</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>769.8289100000001</v>
+        <v>769.82891</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>739.5864000000001</v>
+        <v>739.5864</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>931.2596799999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1560.7504</v>
+        <v>1641.2504</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1951.32674</v>
+        <v>1962.35674</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>888.6489</v>
+        <v>908.72371</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2251.90906</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>10556.0925</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>12825.325</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>255.62731</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>96.61011000000001</v>
+        <v>96.61010999999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>510.2784</v>
@@ -1979,10 +2015,10 @@
         <v>174.48727</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>156.92047</v>
+        <v>157.07594</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>13964.21322</v>
+        <v>13969.86563</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>320.55658</v>
@@ -1991,16 +2027,21 @@
         <v>603.96338</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>886.3154000000002</v>
+        <v>886.3154000000001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>2518.88328</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>6412.241</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>49526.22693</v>
@@ -2012,34 +2053,39 @@
         <v>75165.64928999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>50897.8322</v>
+        <v>50898.14659</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>86159.83869</v>
+        <v>88654.93678</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>91176.04813</v>
+        <v>92222.67288</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>209750.0894</v>
+        <v>216846.20922</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>210891.26667</v>
+        <v>210893.60345</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>232296.9194</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>886970.50176</v>
+        <v>887271.88248</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>284900.65343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>285621.53556</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>730801.074</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>7.61056</v>
@@ -2057,7 +2103,7 @@
         <v>7.69107</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>5.43114</v>
+        <v>8.179180000000001</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>31.24483</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1228.42026</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>248.34</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>45.88311</v>
@@ -2093,7 +2144,7 @@
         <v>87.54294</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>79.07395999999999</v>
+        <v>79.07396</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>29.91677</v>
@@ -2108,16 +2159,21 @@
         <v>115.94915</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>112.145</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>7261.71452</v>
@@ -2132,31 +2188,36 @@
         <v>12131.51122</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>12978.87232</v>
+        <v>13502.42993</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>17577.90941</v>
+        <v>17644.51282</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>23323.65428</v>
+        <v>23419.97433</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>21290.33849</v>
+        <v>21291.62513</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>26583.87061</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>28282.53296</v>
+        <v>28282.56194</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>32760.18177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>34389.32924</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>74495.518</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>65991.66451</v>
@@ -2168,34 +2229,39 @@
         <v>87960.65064000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>54675.69853</v>
+        <v>54676.39657</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>106830.17298</v>
+        <v>113255.05412</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>107075.72403</v>
+        <v>108413.04923</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>255745.94926</v>
+        <v>265416.28744</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>237567.49266</v>
+        <v>237577.70582</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>285061.52601</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>837477.3074500001</v>
+        <v>838064.08251</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>316464.11334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>318725.19588</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>688042.045</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1987.49133</v>
@@ -2216,7 +2282,7 @@
         <v>3252.0497</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1533.03536</v>
+        <v>1654.65205</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1589.99665</v>
@@ -2228,13 +2294,18 @@
         <v>5022.12211</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1550.11015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1550.20865</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2845.109</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>5865.3768</v>
@@ -2243,19 +2314,19 @@
         <v>5690.0863</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5956.14864</v>
+        <v>5956.148639999999</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>5775.530279999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5969.03292</v>
+        <v>6112.900259999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8098.69371</v>
+        <v>8131.2536</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>17861.22023</v>
+        <v>18034.02016</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>19200.71682</v>
@@ -2267,13 +2338,18 @@
         <v>32357.3831</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>41756.80086</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>42895.12086</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>76686.788</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>101.37391</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>193.23188</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>971.082</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>53844.00053</v>
@@ -2324,34 +2405,39 @@
         <v>72657.28486</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>42009.98629</v>
+        <v>42010.68433</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>91880.44426</v>
+        <v>97533.95838</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>86646.34921000001</v>
+        <v>87464.27342999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>226482.04069</v>
+        <v>235780.15277</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>205896.19185</v>
+        <v>205901.9384</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>248206.6316</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>779310.27295</v>
+        <v>779897.0480099999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>252072.25653</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>252809.04293</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>586389.219</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>3.29088</v>
@@ -2366,7 +2452,7 @@
         <v>229.07525</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>618.0529799999999</v>
+        <v>618.0529799999998</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>1272.7244</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>5608.933349999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>12403.111</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4.85446</v>
@@ -2425,35 +2516,40 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4185.276599999999</v>
+        <v>4185.2766</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>4476.82361</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6517.55867</v>
+        <v>6517.558670000001</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>4837.37419</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5484.962789999999</v>
+        <v>6112.462469999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7793.418789999999</v>
+        <v>8280.259880000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7920.52137</v>
+        <v>7998.330849999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9533.74129</v>
+        <v>9538.207900000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>7361.577979999999</v>
@@ -2462,52 +2558,62 @@
         <v>10415.50832</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>15282.78057</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>15668.65821</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8746.736000000001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>59431.09890999999</v>
+        <v>59431.09891000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>47331.13943</v>
+        <v>47331.13943000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>66074.43705000001</v>
+        <v>66074.43704999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>82368.87149999999</v>
+        <v>82375.66937</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>105864.95434</v>
+        <v>109191.61547</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>119182.01451</v>
+        <v>119362.58529</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>170275.18477</v>
+        <v>177322.11802</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>179567.35432</v>
+        <v>179643.62343</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>193387.3875</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>358039.36402</v>
+        <v>358320.03025</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>309262.93898</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>310540.60668</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>389375.862</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>56851.23608</v>
@@ -2519,34 +2625,39 @@
         <v>63425.01603999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>79305.34844</v>
+        <v>79312.14631</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>97587.05101</v>
+        <v>100913.71214</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>114507.52819</v>
+        <v>114688.09897</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>163112.04847</v>
+        <v>170152.29375</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>171188.74599</v>
+        <v>171265.0151</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>183371.53415</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>337089.01154</v>
+        <v>337369.67777</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>287800.3084</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>289075.74023</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>361376.261</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2579.86283</v>
@@ -2567,7 +2678,7 @@
         <v>4674.48632</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7163.136300000001</v>
+        <v>7169.82427</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>8378.608330000001</v>
@@ -2579,13 +2690,18 @@
         <v>20950.35248</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>21462.63058</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>21464.86645</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>27999.601</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>127813.06255</v>
@@ -2597,34 +2713,39 @@
         <v>213230.82619</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>238515.04979</v>
+        <v>238542.30727</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>296126.9970800001</v>
+        <v>299994.58901</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>338321.42769</v>
+        <v>340101.1687</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>428515.82973</v>
+        <v>443196.42125</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>394133.8366</v>
+        <v>396944.50123</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>609941.45554</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>634369.3552400001</v>
+        <v>630655.86223</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>877917.93345</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>883024.5416200001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1660983.808</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>21953.18235</v>
@@ -2639,31 +2760,36 @@
         <v>46658.39658</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>48567.56189</v>
+        <v>49724.48437000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>74840.61812999999</v>
+        <v>75968.74874000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>145845.7025</v>
+        <v>148139.17438</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>60710.05781999999</v>
+        <v>60747.44225</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>98432.86787</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>104316.24039</v>
+        <v>105712.43055</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>103448.55085</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>104154.8118</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>155759.894</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>54.532</v>
@@ -2684,7 +2810,7 @@
         <v>472.8184</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>436.40737</v>
+        <v>438.47943</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>651.5462</v>
@@ -2693,16 +2819,21 @@
         <v>526.70253</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>397.3583399999999</v>
+        <v>397.35834</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>746.67501</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>523.524</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>21898.65035</v>
@@ -2717,31 +2848,36 @@
         <v>46291.32569</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>47965.63505</v>
+        <v>49122.55753</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>74367.79972999998</v>
+        <v>75495.93034000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>145409.29513</v>
+        <v>147700.69495</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>60058.51162</v>
+        <v>60095.89605</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>97906.16534000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>103918.88205</v>
+        <v>105315.07221</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>102701.87584</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>103408.13679</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>155236.37</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>23909.78035</v>
@@ -2753,34 +2889,39 @@
         <v>173009.29167</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>51476.53179</v>
+        <v>51481.05269999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>47048.81867999999</v>
+        <v>47292.21655</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>116069.2777</v>
+        <v>116501.90246</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>56988.57455</v>
+        <v>58976.67622</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>128299.0126</v>
+        <v>128336.48817</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>79364.04814</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>167001.62297</v>
+        <v>169560.16423</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>133115.67874</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>134461.53512</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>138270.648</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4858.957689999999</v>
@@ -2789,19 +2930,19 @@
         <v>4547.15908</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>5629.47878</v>
+        <v>5629.478779999999</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>18385.25941</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>12520.07067</v>
+        <v>12537.77031</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>7086.14388</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8244.174920000001</v>
+        <v>8821.26204</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>15276.44845</v>
@@ -2810,16 +2951,21 @@
         <v>19618.17535</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>16475.55148</v>
+        <v>16581.89812</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>21849.65319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>21998.26571</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>36167.835</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1884.12783</v>
@@ -2834,31 +2980,36 @@
         <v>1222.3016</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2665.41199</v>
+        <v>2683.15177</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>2674.29673</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4796.70792</v>
+        <v>5509.485070000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2437.21908</v>
+        <v>2441.48901</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>4300.37599</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4667.77681</v>
+        <v>4670.776809999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4452.028</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4452.858</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>11297.714</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>17166.69483</v>
@@ -2870,34 +3021,39 @@
         <v>162101.02399</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>31868.97078</v>
+        <v>31873.49169</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>31863.33602</v>
+        <v>32071.29447</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>106308.83709</v>
+        <v>106741.46185</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>43947.69170999999</v>
+        <v>44645.92911</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>110585.34507</v>
+        <v>110618.55071</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>55445.49679999999</v>
+        <v>55445.49680000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>145858.29468</v>
+        <v>148307.4893</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>106813.99755</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>108010.41141</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>90805.099</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>125856.46455</v>
@@ -2909,34 +3065,39 @@
         <v>70726.76746999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>233696.91458</v>
+        <v>233719.65115</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>297645.74029</v>
+        <v>302426.85683</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>297092.76812</v>
+        <v>299568.01498</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>517372.9576800001</v>
+        <v>532358.91941</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>326544.88182</v>
+        <v>329355.45531</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>629010.27527</v>
+        <v>629010.2752700001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>571683.97266</v>
+        <v>566808.1285499999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>848250.8055599999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>852717.8182999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1678473.054</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>26975.07218</v>
@@ -2948,34 +3109,39 @@
         <v>36338.00662000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>40409.49226000001</v>
+        <v>40414.94376</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>51757.84468</v>
+        <v>52677.80153</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>56013.1237</v>
+        <v>56214.68567</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>65083.50036</v>
+        <v>67367.93606000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>74564.14518000001</v>
+        <v>74777.71161</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>106767.97224</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>132168.93574</v>
+        <v>132259.88615</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>167624.90196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>169296.70526</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>271250.301</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>98881.39237</v>
@@ -2984,34 +3150,37 @@
         <v>136098.37501</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>34388.76085</v>
+        <v>34388.76084999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>193287.42232</v>
+        <v>193304.70739</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>245887.89561</v>
+        <v>249749.0553</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>241079.64442</v>
+        <v>243353.32931</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>452289.45732</v>
+        <v>464990.98335</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>251980.73664</v>
+        <v>254577.7437</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>522242.30303</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>439515.03692</v>
+        <v>434548.2424</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>680625.9036000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>683421.11304</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1407222.753</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2345</v>
@@ -3041,31 +3213,34 @@
         <v>2356</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2317</v>
+        <v>2325</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2277</v>
+        <v>2290</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2283</v>
+        <v>2316</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2389</v>
+        <v>2396</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2458</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2291</v>
+        <v>2556</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2592</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>